--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H2">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N2">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O2">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P2">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q2">
-        <v>3.080532182616</v>
+        <v>2.170893503659111</v>
       </c>
       <c r="R2">
-        <v>27.724789643544</v>
+        <v>19.538041532932</v>
       </c>
       <c r="S2">
-        <v>0.246570150695449</v>
+        <v>0.2059759460344999</v>
       </c>
       <c r="T2">
-        <v>0.246570150695449</v>
+        <v>0.2059759460344998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H3">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q3">
-        <v>3.046310083394667</v>
+        <v>2.079003514790223</v>
       </c>
       <c r="R3">
-        <v>27.416790750552</v>
+        <v>18.711031633112</v>
       </c>
       <c r="S3">
-        <v>0.2438309654956524</v>
+        <v>0.1972573574181229</v>
       </c>
       <c r="T3">
-        <v>0.2438309654956524</v>
+        <v>0.1972573574181229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H4">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N4">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q4">
-        <v>2.059530062664667</v>
+        <v>3.200549458233112</v>
       </c>
       <c r="R4">
-        <v>18.535770563982</v>
+        <v>28.804945124098</v>
       </c>
       <c r="S4">
-        <v>0.1648476976733912</v>
+        <v>0.3036704478495177</v>
       </c>
       <c r="T4">
-        <v>0.1648476976733912</v>
+        <v>0.3036704478495177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H5">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N5">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O5">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P5">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q5">
-        <v>0.6106816803896667</v>
+        <v>0.3264527301128889</v>
       </c>
       <c r="R5">
-        <v>5.496135123507001</v>
+        <v>2.938074571016</v>
       </c>
       <c r="S5">
-        <v>0.04887982498944729</v>
+        <v>0.03097407118645386</v>
       </c>
       <c r="T5">
-        <v>0.04887982498944728</v>
+        <v>0.03097407118645385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H6">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N6">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O6">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P6">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q6">
-        <v>1.294424341848</v>
+        <v>0.7711836770013334</v>
       </c>
       <c r="R6">
-        <v>11.649819076632</v>
+        <v>6.940653093012</v>
       </c>
       <c r="S6">
-        <v>0.1036075541863943</v>
+        <v>0.07317046514210619</v>
       </c>
       <c r="T6">
-        <v>0.1036075541863943</v>
+        <v>0.07317046514210619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H7">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q7">
-        <v>1.280044385517333</v>
+        <v>0.7385408691546667</v>
       </c>
       <c r="R7">
-        <v>11.520399469656</v>
+        <v>6.646867822392001</v>
       </c>
       <c r="S7">
-        <v>0.1024565621534413</v>
+        <v>0.07007329192006344</v>
       </c>
       <c r="T7">
-        <v>0.1024565621534413</v>
+        <v>0.07007329192006345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H8">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N8">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q8">
-        <v>0.8654043158273333</v>
+        <v>1.136956509135333</v>
       </c>
       <c r="R8">
-        <v>7.788638842446</v>
+        <v>10.232608582218</v>
       </c>
       <c r="S8">
-        <v>0.06926818481890748</v>
+        <v>0.1078752560521763</v>
       </c>
       <c r="T8">
-        <v>0.06926818481890747</v>
+        <v>0.1078752560521763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H9">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N9">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O9">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P9">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q9">
-        <v>0.2566054127523333</v>
+        <v>0.1159683864506666</v>
       </c>
       <c r="R9">
-        <v>2.309448714771</v>
+        <v>1.043715478056</v>
       </c>
       <c r="S9">
-        <v>0.02053905998731705</v>
+        <v>0.01100316439705989</v>
       </c>
       <c r="T9">
-        <v>0.02053905998731704</v>
+        <v>0.01100316439705989</v>
       </c>
     </row>
   </sheetData>
